--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2021</t>
+    <t>I trimestre 2005 - II trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -657,6 +657,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -749,26 +758,10 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,6 +772,20 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1124,10 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM15"/>
+  <dimension ref="A1:BN15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BO16" sqref="BO16"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BN19" sqref="BN19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,241 +1203,243 @@
     <col min="61" max="61" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="15.85546875" style="2" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="11.42578125" style="2"/>
+    <col min="66" max="66" width="17.85546875" style="2" customWidth="1"/>
+    <col min="67" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
-      <c r="AL1" s="26"/>
-      <c r="AM1" s="26"/>
-      <c r="AN1" s="26"/>
-      <c r="AO1" s="26"/>
-      <c r="AP1" s="26"/>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="26"/>
-      <c r="AT1" s="26"/>
-      <c r="AU1" s="26"/>
-      <c r="AV1" s="26"/>
-      <c r="AW1" s="26"/>
-      <c r="AX1" s="26"/>
-      <c r="AY1" s="26"/>
-      <c r="AZ1" s="26"/>
-      <c r="BA1" s="26"/>
-      <c r="BB1" s="26"/>
-      <c r="BC1" s="26"/>
-      <c r="BD1" s="26"/>
-      <c r="BE1" s="26"/>
-      <c r="BF1" s="26"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
+      <c r="AX1" s="3"/>
+      <c r="AY1" s="3"/>
+      <c r="AZ1" s="3"/>
+      <c r="BA1" s="3"/>
+      <c r="BB1" s="3"/>
+      <c r="BC1" s="3"/>
+      <c r="BD1" s="3"/>
+      <c r="BE1" s="3"/>
+      <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
+    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
     </row>
-    <row r="4" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="27"/>
-      <c r="AS4" s="27"/>
-      <c r="AT4" s="27">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27"/>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="29">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="23">
         <v>2019</v>
       </c>
-      <c r="BG4" s="30"/>
-      <c r="BH4" s="30"/>
-      <c r="BI4" s="31"/>
-      <c r="BJ4" s="27">
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="27"/>
-      <c r="BL4" s="27"/>
-      <c r="BM4" s="20">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
+      <c r="BN4" s="26"/>
     </row>
-    <row r="5" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1620,7 @@
       <c r="BI5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="10" t="s">
+      <c r="BJ5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="BK5" s="15" t="s">
@@ -1619,80 +1629,84 @@
       <c r="BL5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="BM5" s="10" t="s">
+      <c r="BM5" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="BN5" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="22"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="22"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="21"/>
+      <c r="AM6" s="21"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="21"/>
+      <c r="AP6" s="21"/>
+      <c r="AQ6" s="21"/>
+      <c r="AR6" s="21"/>
+      <c r="AS6" s="21"/>
+      <c r="AT6" s="21"/>
+      <c r="AU6" s="21"/>
+      <c r="AV6" s="21"/>
+      <c r="AW6" s="21"/>
+      <c r="AX6" s="21"/>
+      <c r="AY6" s="21"/>
+      <c r="AZ6" s="21"/>
+      <c r="BA6" s="21"/>
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="31"/>
+      <c r="BK6" s="30"/>
+      <c r="BL6" s="30"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
     </row>
-    <row r="7" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1879,17 +1893,20 @@
       <c r="BJ7" s="19">
         <v>3894295</v>
       </c>
-      <c r="BK7" s="19">
+      <c r="BK7" s="18">
         <v>3764716</v>
       </c>
-      <c r="BL7" s="19">
+      <c r="BL7" s="18">
         <v>3810866</v>
       </c>
-      <c r="BM7" s="19">
+      <c r="BM7" s="18">
         <v>3879906</v>
       </c>
+      <c r="BN7" s="18">
+        <v>3957119</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2085,8 +2102,11 @@
       <c r="BM8" s="16">
         <v>3735596</v>
       </c>
+      <c r="BN8" s="16">
+        <v>3824700</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2282,8 +2302,11 @@
       <c r="BM9" s="16">
         <v>144310</v>
       </c>
+      <c r="BN9" s="16">
+        <v>132419</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2479,8 +2502,11 @@
       <c r="BM10" s="18">
         <v>2522352</v>
       </c>
+      <c r="BN10" s="18">
+        <v>2468729</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2676,8 +2702,11 @@
       <c r="BM11" s="16">
         <v>242475</v>
       </c>
+      <c r="BN11" s="16">
+        <v>198565</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2873,92 +2902,90 @@
       <c r="BM12" s="16">
         <v>2279877</v>
       </c>
+      <c r="BN12" s="16">
+        <v>2270164</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-      <c r="AC13" s="25"/>
-      <c r="AD13" s="25"/>
-      <c r="AE13" s="25"/>
-      <c r="AF13" s="25"/>
-      <c r="AG13" s="25"/>
-      <c r="AH13" s="25"/>
-      <c r="AI13" s="25"/>
-      <c r="AJ13" s="25"/>
-      <c r="AK13" s="25"/>
-      <c r="AL13" s="25"/>
-      <c r="AM13" s="25"/>
-      <c r="AN13" s="25"/>
-      <c r="AO13" s="25"/>
-      <c r="AP13" s="25"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="27"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="27"/>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
-    <mergeCell ref="A1:BF1"/>
+    <mergeCell ref="BM4:BN4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -2973,6 +3000,11 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2021</t>
+    <t>I trimestre 2005 - III trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -763,6 +763,17 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,20 +783,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BN15"/>
+  <dimension ref="A1:BO15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN19" sqref="BN19"/>
+      <selection pane="topRight" activeCell="BK32" sqref="BK32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,11 +1203,12 @@
     <col min="61" max="61" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="62" max="64" width="15.85546875" style="2" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.85546875" style="2" customWidth="1"/>
-    <col min="67" max="16384" width="11.42578125" style="2"/>
+    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="17.85546875" style="2" customWidth="1"/>
+    <col min="68" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1269,177 +1270,178 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
+    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
     </row>
-    <row r="4" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="23">
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="25">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
     </row>
-    <row r="5" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1635,8 +1637,11 @@
       <c r="BN5" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="BO5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1700,13 +1705,14 @@
       <c r="BG6" s="21"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
-      <c r="BJ6" s="31"/>
-      <c r="BK6" s="30"/>
-      <c r="BL6" s="30"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
+      <c r="BJ6" s="24"/>
+      <c r="BK6" s="23"/>
+      <c r="BL6" s="23"/>
+      <c r="BM6" s="23"/>
+      <c r="BN6" s="23"/>
+      <c r="BO6" s="23"/>
     </row>
-    <row r="7" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1905,8 +1911,11 @@
       <c r="BN7" s="18">
         <v>3957119</v>
       </c>
+      <c r="BO7" s="18">
+        <v>3959500</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2105,8 +2114,11 @@
       <c r="BN8" s="16">
         <v>3824700</v>
       </c>
+      <c r="BO8" s="16">
+        <v>3825417</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2305,8 +2317,11 @@
       <c r="BN9" s="16">
         <v>132419</v>
       </c>
+      <c r="BO9" s="16">
+        <v>134083</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2505,8 +2520,11 @@
       <c r="BN10" s="18">
         <v>2468729</v>
       </c>
+      <c r="BO10" s="18">
+        <v>2521836</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2705,8 +2723,11 @@
       <c r="BN11" s="16">
         <v>198565</v>
       </c>
+      <c r="BO11" s="16">
+        <v>214865</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2905,87 +2926,94 @@
       <c r="BN12" s="16">
         <v>2270164</v>
       </c>
+      <c r="BO12" s="16">
+        <v>2306971</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="BM4:BO4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3001,10 +3029,6 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - III trimestre de 2021</t>
+    <t>I trimestre 2005 - IV trimestre de 2021</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -657,15 +657,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -763,10 +754,11 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -783,9 +775,7 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1131,11 +1121,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BO15"/>
+  <dimension ref="A1:BP15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BK32" sqref="BK32"/>
+      <selection pane="topRight" activeCell="BH17" sqref="BH17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1204,11 +1194,12 @@
     <col min="62" max="64" width="15.85546875" style="2" customWidth="1"/>
     <col min="65" max="65" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="17.85546875" style="2" customWidth="1"/>
-    <col min="68" max="16384" width="11.42578125" style="2"/>
+    <col min="67" max="67" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.5703125" style="2" customWidth="1"/>
+    <col min="69" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1270,178 +1261,179 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
+    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="25"/>
+      <c r="AT3" s="25"/>
+      <c r="AU3" s="25"/>
+      <c r="AV3" s="25"/>
+      <c r="AW3" s="25"/>
+      <c r="AX3" s="25"/>
+      <c r="AY3" s="25"/>
+      <c r="AZ3" s="25"/>
+      <c r="BA3" s="25"/>
+      <c r="BB3" s="25"/>
+      <c r="BC3" s="25"/>
+      <c r="BD3" s="25"/>
+      <c r="BE3" s="25"/>
+      <c r="BF3" s="25"/>
     </row>
-    <row r="4" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <v>2005</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>2006</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <v>2007</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23">
         <v>2008</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25">
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23">
         <v>2009</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23">
         <v>2010</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23">
         <v>2011</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23">
         <v>2012</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25">
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23">
         <v>2013</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25">
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23">
         <v>2014</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25">
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25">
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23">
         <v>2016</v>
       </c>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25">
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23">
         <v>2017</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25">
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23">
         <v>2018</v>
       </c>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="28">
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="27">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="25">
+      <c r="BG4" s="28"/>
+      <c r="BH4" s="28"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="23">
         <v>2020</v>
       </c>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25">
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23">
         <v>2021</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
     </row>
-    <row r="5" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1640,12 +1632,15 @@
       <c r="BO5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="BP5" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -1705,14 +1700,15 @@
       <c r="BG6" s="21"/>
       <c r="BH6" s="21"/>
       <c r="BI6" s="21"/>
-      <c r="BJ6" s="24"/>
-      <c r="BK6" s="23"/>
-      <c r="BL6" s="23"/>
-      <c r="BM6" s="23"/>
-      <c r="BN6" s="23"/>
-      <c r="BO6" s="23"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="30"/>
     </row>
-    <row r="7" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1914,8 +1910,11 @@
       <c r="BO7" s="18">
         <v>3959500</v>
       </c>
+      <c r="BP7" s="18">
+        <v>4050154</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2117,8 +2116,11 @@
       <c r="BO8" s="16">
         <v>3825417</v>
       </c>
+      <c r="BP8" s="16">
+        <v>3924612</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2320,8 +2322,11 @@
       <c r="BO9" s="16">
         <v>134083</v>
       </c>
+      <c r="BP9" s="16">
+        <v>125542</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2523,8 +2528,11 @@
       <c r="BO10" s="18">
         <v>2521836</v>
       </c>
+      <c r="BP10" s="18">
+        <v>2463635</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2726,8 +2734,11 @@
       <c r="BO11" s="16">
         <v>214865</v>
       </c>
+      <c r="BP11" s="16">
+        <v>248788</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2929,91 +2940,89 @@
       <c r="BO12" s="16">
         <v>2306971</v>
       </c>
+      <c r="BP12" s="16">
+        <v>2214847</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
-    <mergeCell ref="BM4:BO4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3029,6 +3038,11 @@
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
   </bookViews>
   <sheets>
     <sheet name="pob 15 y más" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - IV trimestre de 2021</t>
+    <t>I trimestre 2005 - I trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -757,11 +757,12 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -775,7 +776,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,85 +1124,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP15"/>
+  <dimension ref="A1:BQ15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BH17" sqref="BH17"/>
+      <selection pane="topRight" activeCell="BN17" sqref="BN17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.5703125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="15.85546875" style="2" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.5703125" style="2" customWidth="1"/>
-    <col min="69" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="39.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.625" style="2" customWidth="1"/>
+    <col min="61" max="61" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="15.875" style="2" customWidth="1"/>
+    <col min="65" max="65" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.625" style="2" customWidth="1"/>
+    <col min="69" max="69" width="15.5" style="2" customWidth="1"/>
+    <col min="70" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1261,12 +1265,12 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -1326,114 +1330,117 @@
       <c r="BE3" s="25"/>
       <c r="BF3" s="25"/>
     </row>
-    <row r="4" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="27">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="28"/>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="29"/>
-      <c r="BJ4" s="23">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="23"/>
-      <c r="BP4" s="23"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="23">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1635,8 +1642,11 @@
       <c r="BP5" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="BQ5" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1706,9 +1716,10 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
       <c r="BO6" s="21"/>
-      <c r="BP6" s="30"/>
+      <c r="BP6" s="24"/>
+      <c r="BQ6" s="21"/>
     </row>
-    <row r="7" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1913,8 +1924,11 @@
       <c r="BP7" s="18">
         <v>4050154</v>
       </c>
+      <c r="BQ7" s="18">
+        <v>4039130</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2119,8 +2133,11 @@
       <c r="BP8" s="16">
         <v>3924612</v>
       </c>
+      <c r="BQ8" s="16">
+        <v>3943727</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2325,8 +2342,11 @@
       <c r="BP9" s="16">
         <v>125542</v>
       </c>
+      <c r="BQ9" s="16">
+        <v>95403</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2531,8 +2551,11 @@
       <c r="BP10" s="18">
         <v>2463635</v>
       </c>
+      <c r="BQ10" s="18">
+        <v>2514640</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2737,8 +2760,11 @@
       <c r="BP11" s="16">
         <v>248788</v>
       </c>
+      <c r="BQ11" s="16">
+        <v>218246</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2943,86 +2969,93 @@
       <c r="BP12" s="16">
         <v>2214847</v>
       </c>
+      <c r="BQ12" s="16">
+        <v>2296394</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="A13:BK13"/>
+    <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -3039,10 +3072,6 @@
     <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="BF4:BI4"/>
     <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="A13:BK13"/>
-    <mergeCell ref="BM4:BP4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2022</t>
+    <t>I trimestre 2005 - II trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -758,11 +758,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,8 +782,11 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1124,11 +1133,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ15"/>
+  <dimension ref="A1:BR15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BN17" sqref="BN17"/>
+      <selection pane="topRight" activeCell="BR21" sqref="BR21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1200,10 +1209,11 @@
     <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="16.625" style="2" customWidth="1"/>
     <col min="69" max="69" width="15.5" style="2" customWidth="1"/>
-    <col min="70" max="16384" width="11.375" style="2"/>
+    <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1265,73 +1275,73 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
-      <c r="AC3" s="25"/>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="25"/>
-      <c r="AT3" s="25"/>
-      <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
-      <c r="AW3" s="25"/>
-      <c r="AX3" s="25"/>
-      <c r="AY3" s="25"/>
-      <c r="AZ3" s="25"/>
-      <c r="BA3" s="25"/>
-      <c r="BB3" s="25"/>
-      <c r="BC3" s="25"/>
-      <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
-      <c r="BF3" s="25"/>
+    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="28"/>
+      <c r="AS3" s="28"/>
+      <c r="AT3" s="28"/>
+      <c r="AU3" s="28"/>
+      <c r="AV3" s="28"/>
+      <c r="AW3" s="28"/>
+      <c r="AX3" s="28"/>
+      <c r="AY3" s="28"/>
+      <c r="AZ3" s="28"/>
+      <c r="BA3" s="28"/>
+      <c r="BB3" s="28"/>
+      <c r="BC3" s="28"/>
+      <c r="BD3" s="28"/>
+      <c r="BE3" s="28"/>
+      <c r="BF3" s="28"/>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="26">
@@ -1418,12 +1428,12 @@
       <c r="BC4" s="26"/>
       <c r="BD4" s="26"/>
       <c r="BE4" s="26"/>
-      <c r="BF4" s="28">
+      <c r="BF4" s="30">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="30"/>
+      <c r="BG4" s="31"/>
+      <c r="BH4" s="31"/>
+      <c r="BI4" s="32"/>
       <c r="BJ4" s="26">
         <v>2020</v>
       </c>
@@ -1438,9 +1448,12 @@
       <c r="BQ4" s="23">
         <v>2022</v>
       </c>
+      <c r="BR4" s="25">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1645,8 +1658,11 @@
       <c r="BQ5" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="BR5" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1717,9 +1733,10 @@
       <c r="BN6" s="21"/>
       <c r="BO6" s="21"/>
       <c r="BP6" s="24"/>
-      <c r="BQ6" s="21"/>
+      <c r="BQ6" s="34"/>
+      <c r="BR6" s="33"/>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1927,8 +1944,11 @@
       <c r="BQ7" s="18">
         <v>4039130</v>
       </c>
+      <c r="BR7" s="18">
+        <v>4068763</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2136,8 +2156,11 @@
       <c r="BQ8" s="16">
         <v>3943727</v>
       </c>
+      <c r="BR8" s="16">
+        <v>3973378</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2345,8 +2368,11 @@
       <c r="BQ9" s="16">
         <v>95403</v>
       </c>
+      <c r="BR9" s="16">
+        <v>95385</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2554,8 +2580,11 @@
       <c r="BQ10" s="18">
         <v>2514640</v>
       </c>
+      <c r="BR10" s="18">
+        <v>2502301</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2763,8 +2792,11 @@
       <c r="BQ11" s="16">
         <v>218246</v>
       </c>
+      <c r="BR11" s="16">
+        <v>218314</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -2972,86 +3004,94 @@
       <c r="BQ12" s="16">
         <v>2296394</v>
       </c>
+      <c r="BR12" s="16">
+        <v>2283987</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-      <c r="AS13" s="31"/>
-      <c r="AT13" s="31"/>
-      <c r="AU13" s="31"/>
-      <c r="AV13" s="31"/>
-      <c r="AW13" s="31"/>
-      <c r="AX13" s="31"/>
-      <c r="AY13" s="31"/>
-      <c r="AZ13" s="31"/>
-      <c r="BA13" s="31"/>
-      <c r="BB13" s="31"/>
-      <c r="BC13" s="31"/>
-      <c r="BD13" s="31"/>
-      <c r="BE13" s="31"/>
-      <c r="BF13" s="31"/>
-      <c r="BG13" s="31"/>
-      <c r="BH13" s="31"/>
-      <c r="BI13" s="31"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="31"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="27"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="27"/>
+      <c r="AW13" s="27"/>
+      <c r="AX13" s="27"/>
+      <c r="AY13" s="27"/>
+      <c r="AZ13" s="27"/>
+      <c r="BA13" s="27"/>
+      <c r="BB13" s="27"/>
+      <c r="BC13" s="27"/>
+      <c r="BD13" s="27"/>
+      <c r="BE13" s="27"/>
+      <c r="BF13" s="27"/>
+      <c r="BG13" s="27"/>
+      <c r="BH13" s="27"/>
+      <c r="BI13" s="27"/>
+      <c r="BJ13" s="27"/>
+      <c r="BK13" s="27"/>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="21">
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BR6"/>
     <mergeCell ref="AT4:AW4"/>
     <mergeCell ref="BJ4:BL4"/>
     <mergeCell ref="A13:BK13"/>
@@ -3068,10 +3108,6 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2022</t>
+    <t>I trimestre 2005 - III trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -754,14 +754,23 @@
     <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -772,21 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1133,11 +1127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR15"/>
+  <dimension ref="A1:BS15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BR21" sqref="BR21"/>
+      <selection pane="topRight" activeCell="BQ24" sqref="BQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1208,12 +1202,13 @@
     <col min="66" max="66" width="17.625" style="2" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="16.625" style="2" customWidth="1"/>
-    <col min="69" max="69" width="15.5" style="2" customWidth="1"/>
+    <col min="69" max="69" width="15.75" style="2" customWidth="1"/>
     <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="16384" width="11.375" style="2"/>
+    <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1275,185 +1270,184 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="28"/>
-      <c r="AZ3" s="28"/>
-      <c r="BA3" s="28"/>
-      <c r="BB3" s="28"/>
-      <c r="BC3" s="28"/>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
+    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="31"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="31"/>
+      <c r="AL3" s="31"/>
+      <c r="AM3" s="31"/>
+      <c r="AN3" s="31"/>
+      <c r="AO3" s="31"/>
+      <c r="AP3" s="31"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="31"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
     </row>
-    <row r="4" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="24">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24"/>
+      <c r="AD4" s="24">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="24">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="24"/>
+      <c r="AR4" s="24"/>
+      <c r="AS4" s="24"/>
+      <c r="AT4" s="24">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="24"/>
+      <c r="AV4" s="24"/>
+      <c r="AW4" s="24"/>
+      <c r="AX4" s="24">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="24"/>
+      <c r="AZ4" s="24"/>
+      <c r="BA4" s="24"/>
+      <c r="BB4" s="24">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="30">
+      <c r="BC4" s="24"/>
+      <c r="BD4" s="24"/>
+      <c r="BE4" s="24"/>
+      <c r="BF4" s="25">
         <v>2019</v>
       </c>
-      <c r="BG4" s="31"/>
-      <c r="BH4" s="31"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="24">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="24"/>
+      <c r="BL4" s="24"/>
+      <c r="BM4" s="24">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="23">
+      <c r="BN4" s="24"/>
+      <c r="BO4" s="24"/>
+      <c r="BP4" s="24"/>
+      <c r="BQ4" s="25">
         <v>2022</v>
       </c>
-      <c r="BR4" s="25">
-        <v>2022</v>
-      </c>
+      <c r="BR4" s="26"/>
+      <c r="BS4" s="27"/>
     </row>
-    <row r="5" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1661,8 +1655,11 @@
       <c r="BR5" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="BS5" s="4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1732,11 +1729,12 @@
       <c r="BM6" s="21"/>
       <c r="BN6" s="21"/>
       <c r="BO6" s="21"/>
-      <c r="BP6" s="24"/>
-      <c r="BQ6" s="34"/>
-      <c r="BR6" s="33"/>
+      <c r="BP6" s="23"/>
+      <c r="BQ6" s="28"/>
+      <c r="BR6" s="29"/>
+      <c r="BS6" s="29"/>
     </row>
-    <row r="7" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1947,8 +1945,11 @@
       <c r="BR7" s="18">
         <v>4068763</v>
       </c>
+      <c r="BS7" s="18">
+        <v>4140158</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2159,8 +2160,11 @@
       <c r="BR8" s="16">
         <v>3973378</v>
       </c>
+      <c r="BS8" s="16">
+        <v>4023627</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2371,8 +2375,11 @@
       <c r="BR9" s="16">
         <v>95385</v>
       </c>
+      <c r="BS9" s="16">
+        <v>116531</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2583,8 +2590,11 @@
       <c r="BR10" s="18">
         <v>2502301</v>
       </c>
+      <c r="BS10" s="18">
+        <v>2431506</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2795,8 +2805,11 @@
       <c r="BR11" s="16">
         <v>218314</v>
       </c>
+      <c r="BS11" s="16">
+        <v>136420</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3007,93 +3020,89 @@
       <c r="BR12" s="16">
         <v>2283987</v>
       </c>
+      <c r="BS12" s="16">
+        <v>2295086</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
-      <c r="W13" s="27"/>
-      <c r="X13" s="27"/>
-      <c r="Y13" s="27"/>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="27"/>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27"/>
-      <c r="AD13" s="27"/>
-      <c r="AE13" s="27"/>
-      <c r="AF13" s="27"/>
-      <c r="AG13" s="27"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="27"/>
-      <c r="AK13" s="27"/>
-      <c r="AL13" s="27"/>
-      <c r="AM13" s="27"/>
-      <c r="AN13" s="27"/>
-      <c r="AO13" s="27"/>
-      <c r="AP13" s="27"/>
-      <c r="AQ13" s="27"/>
-      <c r="AR13" s="27"/>
-      <c r="AS13" s="27"/>
-      <c r="AT13" s="27"/>
-      <c r="AU13" s="27"/>
-      <c r="AV13" s="27"/>
-      <c r="AW13" s="27"/>
-      <c r="AX13" s="27"/>
-      <c r="AY13" s="27"/>
-      <c r="AZ13" s="27"/>
-      <c r="BA13" s="27"/>
-      <c r="BB13" s="27"/>
-      <c r="BC13" s="27"/>
-      <c r="BD13" s="27"/>
-      <c r="BE13" s="27"/>
-      <c r="BF13" s="27"/>
-      <c r="BG13" s="27"/>
-      <c r="BH13" s="27"/>
-      <c r="BI13" s="27"/>
-      <c r="BJ13" s="27"/>
-      <c r="BK13" s="27"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+      <c r="V13" s="30"/>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="30"/>
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="30"/>
+      <c r="AJ13" s="30"/>
+      <c r="AK13" s="30"/>
+      <c r="AL13" s="30"/>
+      <c r="AM13" s="30"/>
+      <c r="AN13" s="30"/>
+      <c r="AO13" s="30"/>
+      <c r="AP13" s="30"/>
+      <c r="AQ13" s="30"/>
+      <c r="AR13" s="30"/>
+      <c r="AS13" s="30"/>
+      <c r="AT13" s="30"/>
+      <c r="AU13" s="30"/>
+      <c r="AV13" s="30"/>
+      <c r="AW13" s="30"/>
+      <c r="AX13" s="30"/>
+      <c r="AY13" s="30"/>
+      <c r="AZ13" s="30"/>
+      <c r="BA13" s="30"/>
+      <c r="BB13" s="30"/>
+      <c r="BC13" s="30"/>
+      <c r="BD13" s="30"/>
+      <c r="BE13" s="30"/>
+      <c r="BF13" s="30"/>
+      <c r="BG13" s="30"/>
+      <c r="BH13" s="30"/>
+      <c r="BI13" s="30"/>
+      <c r="BJ13" s="30"/>
+      <c r="BK13" s="30"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="AH4:AK4"/>
-    <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
+  <mergeCells count="22">
     <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
@@ -3108,6 +3117,14 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="Z4:AC4"/>
     <mergeCell ref="AD4:AG4"/>
+    <mergeCell ref="AH4:AK4"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,7 +89,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - III trimestre de 2022</t>
+    <t>I trimestre 2005 - IV trimestre de 2022</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -772,15 +781,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1127,11 +1127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS15"/>
+  <dimension ref="A1:BT15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BQ24" sqref="BQ24"/>
+      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BV14" sqref="BV14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1205,10 +1205,11 @@
     <col min="69" max="69" width="15.75" style="2" customWidth="1"/>
     <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="16384" width="11.375" style="2"/>
+    <col min="72" max="72" width="15.625" style="2" customWidth="1"/>
+    <col min="73" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1270,184 +1271,185 @@
       <c r="BE1" s="3"/>
       <c r="BF1" s="3"/>
     </row>
-    <row r="2" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="31"/>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
+    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
     </row>
-    <row r="4" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="25">
         <v>2005</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24">
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25">
         <v>2006</v>
       </c>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25">
         <v>2007</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24">
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25">
         <v>2008</v>
       </c>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24">
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25">
         <v>2009</v>
       </c>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25">
         <v>2010</v>
       </c>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24">
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25">
         <v>2011</v>
       </c>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24">
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="25"/>
+      <c r="AD4" s="25">
         <v>2012</v>
       </c>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24">
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="25"/>
+      <c r="AH4" s="25">
         <v>2013</v>
       </c>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24">
+      <c r="AI4" s="25"/>
+      <c r="AJ4" s="25"/>
+      <c r="AK4" s="25"/>
+      <c r="AL4" s="25">
         <v>2014</v>
       </c>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24">
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24"/>
-      <c r="AS4" s="24"/>
-      <c r="AT4" s="24">
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="25"/>
+      <c r="AS4" s="25"/>
+      <c r="AT4" s="25">
         <v>2016</v>
       </c>
-      <c r="AU4" s="24"/>
-      <c r="AV4" s="24"/>
-      <c r="AW4" s="24"/>
-      <c r="AX4" s="24">
+      <c r="AU4" s="25"/>
+      <c r="AV4" s="25"/>
+      <c r="AW4" s="25"/>
+      <c r="AX4" s="25">
         <v>2017</v>
       </c>
-      <c r="AY4" s="24"/>
-      <c r="AZ4" s="24"/>
-      <c r="BA4" s="24"/>
-      <c r="BB4" s="24">
+      <c r="AY4" s="25"/>
+      <c r="AZ4" s="25"/>
+      <c r="BA4" s="25"/>
+      <c r="BB4" s="25">
         <v>2018</v>
       </c>
-      <c r="BC4" s="24"/>
-      <c r="BD4" s="24"/>
-      <c r="BE4" s="24"/>
-      <c r="BF4" s="25">
+      <c r="BC4" s="25"/>
+      <c r="BD4" s="25"/>
+      <c r="BE4" s="25"/>
+      <c r="BF4" s="28">
         <v>2019</v>
       </c>
-      <c r="BG4" s="26"/>
-      <c r="BH4" s="26"/>
-      <c r="BI4" s="27"/>
-      <c r="BJ4" s="24">
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="30"/>
+      <c r="BJ4" s="25">
         <v>2020</v>
       </c>
-      <c r="BK4" s="24"/>
-      <c r="BL4" s="24"/>
-      <c r="BM4" s="24">
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25">
         <v>2021</v>
       </c>
-      <c r="BN4" s="24"/>
-      <c r="BO4" s="24"/>
-      <c r="BP4" s="24"/>
-      <c r="BQ4" s="25">
+      <c r="BN4" s="25"/>
+      <c r="BO4" s="25"/>
+      <c r="BP4" s="25"/>
+      <c r="BQ4" s="28">
         <v>2022</v>
       </c>
-      <c r="BR4" s="26"/>
-      <c r="BS4" s="27"/>
+      <c r="BR4" s="29"/>
+      <c r="BS4" s="29"/>
+      <c r="BT4" s="30"/>
     </row>
-    <row r="5" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1658,8 +1660,11 @@
       <c r="BS5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="BT5" s="15" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1730,11 +1735,12 @@
       <c r="BN6" s="21"/>
       <c r="BO6" s="21"/>
       <c r="BP6" s="23"/>
-      <c r="BQ6" s="28"/>
-      <c r="BR6" s="29"/>
-      <c r="BS6" s="29"/>
+      <c r="BQ6" s="31"/>
+      <c r="BR6" s="32"/>
+      <c r="BS6" s="32"/>
+      <c r="BT6" s="23"/>
     </row>
-    <row r="7" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -1948,8 +1954,11 @@
       <c r="BS7" s="18">
         <v>4140158</v>
       </c>
+      <c r="BT7" s="18">
+        <v>4164627</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2163,8 +2172,11 @@
       <c r="BS8" s="16">
         <v>4023627</v>
       </c>
+      <c r="BT8" s="16">
+        <v>4066247</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2378,8 +2390,11 @@
       <c r="BS9" s="16">
         <v>116531</v>
       </c>
+      <c r="BT9" s="16">
+        <v>98380</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
@@ -2593,8 +2608,11 @@
       <c r="BS10" s="18">
         <v>2431506</v>
       </c>
+      <c r="BT10" s="18">
+        <v>2477564</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -2808,8 +2826,11 @@
       <c r="BS11" s="16">
         <v>136420</v>
       </c>
+      <c r="BT11" s="16">
+        <v>163762</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -3023,86 +3044,95 @@
       <c r="BS12" s="16">
         <v>2295086</v>
       </c>
+      <c r="BT12" s="16">
+        <v>2313802</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="30"/>
-      <c r="V13" s="30"/>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="30"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="30"/>
-      <c r="AL13" s="30"/>
-      <c r="AM13" s="30"/>
-      <c r="AN13" s="30"/>
-      <c r="AO13" s="30"/>
-      <c r="AP13" s="30"/>
-      <c r="AQ13" s="30"/>
-      <c r="AR13" s="30"/>
-      <c r="AS13" s="30"/>
-      <c r="AT13" s="30"/>
-      <c r="AU13" s="30"/>
-      <c r="AV13" s="30"/>
-      <c r="AW13" s="30"/>
-      <c r="AX13" s="30"/>
-      <c r="AY13" s="30"/>
-      <c r="AZ13" s="30"/>
-      <c r="BA13" s="30"/>
-      <c r="BB13" s="30"/>
-      <c r="BC13" s="30"/>
-      <c r="BD13" s="30"/>
-      <c r="BE13" s="30"/>
-      <c r="BF13" s="30"/>
-      <c r="BG13" s="30"/>
-      <c r="BH13" s="30"/>
-      <c r="BI13" s="30"/>
-      <c r="BJ13" s="30"/>
-      <c r="BK13" s="30"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="24"/>
+      <c r="AC13" s="24"/>
+      <c r="AD13" s="24"/>
+      <c r="AE13" s="24"/>
+      <c r="AF13" s="24"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+      <c r="AI13" s="24"/>
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="AZ13" s="24"/>
+      <c r="BA13" s="24"/>
+      <c r="BB13" s="24"/>
+      <c r="BC13" s="24"/>
+      <c r="BD13" s="24"/>
+      <c r="BE13" s="24"/>
+      <c r="BF13" s="24"/>
+      <c r="BG13" s="24"/>
+      <c r="BH13" s="24"/>
+      <c r="BI13" s="24"/>
+      <c r="BJ13" s="24"/>
+      <c r="BK13" s="24"/>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
@@ -3119,12 +3149,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BQ4:BS4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\UEF\Actualizaciones pagina\Datos históricos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB788C4-5A03-4560-A960-343079818BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12294"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pob 15 y más" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -89,13 +90,13 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - IV trimestre de 2022</t>
+    <t>I trimestre 2005 - I trimestre de 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,9 +705,7 @@
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -722,7 +721,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -734,36 +733,27 @@
     <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -776,10 +766,25 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -916,6 +921,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -951,6 +973,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1126,2013 +1165,2032 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BU15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BI1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BV14" sqref="BV14"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS22" sqref="BS22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.625" style="2" customWidth="1"/>
-    <col min="61" max="61" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="64" width="15.875" style="2" customWidth="1"/>
-    <col min="65" max="65" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="15.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.625" style="2" customWidth="1"/>
-    <col min="69" max="69" width="15.75" style="2" customWidth="1"/>
-    <col min="70" max="70" width="16.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="14.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="15.625" style="2" customWidth="1"/>
-    <col min="73" max="16384" width="11.375" style="2"/>
+    <col min="1" max="1" width="39.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.6640625" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="62" max="64" width="15.88671875" customWidth="1"/>
+    <col min="65" max="65" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.6640625" customWidth="1"/>
+    <col min="69" max="69" width="15.77734375" customWidth="1"/>
+    <col min="70" max="70" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.6640625" customWidth="1"/>
+    <col min="73" max="73" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="3"/>
-      <c r="AY1" s="3"/>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="3"/>
-      <c r="BB1" s="3"/>
-      <c r="BC1" s="3"/>
-      <c r="BD1" s="3"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="3"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
+    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="30"/>
+      <c r="AY3" s="30"/>
+      <c r="AZ3" s="30"/>
+      <c r="BA3" s="30"/>
+      <c r="BB3" s="30"/>
+      <c r="BC3" s="30"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
     </row>
-    <row r="4" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="26">
         <v>2005</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
         <v>2006</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26">
         <v>2007</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26">
         <v>2008</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25">
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26">
         <v>2009</v>
       </c>
-      <c r="S4" s="25"/>
-      <c r="T4" s="25"/>
-      <c r="U4" s="25"/>
-      <c r="V4" s="25">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26">
         <v>2010</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25">
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26">
         <v>2011</v>
       </c>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25">
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26">
         <v>2012</v>
       </c>
-      <c r="AE4" s="25"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="25"/>
-      <c r="AH4" s="25">
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26">
         <v>2013</v>
       </c>
-      <c r="AI4" s="25"/>
-      <c r="AJ4" s="25"/>
-      <c r="AK4" s="25"/>
-      <c r="AL4" s="25">
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26">
         <v>2014</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25">
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26">
         <v>2016</v>
       </c>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="25"/>
-      <c r="AX4" s="25">
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26">
         <v>2017</v>
       </c>
-      <c r="AY4" s="25"/>
-      <c r="AZ4" s="25"/>
-      <c r="BA4" s="25"/>
-      <c r="BB4" s="25">
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26">
         <v>2018</v>
       </c>
-      <c r="BC4" s="25"/>
-      <c r="BD4" s="25"/>
-      <c r="BE4" s="25"/>
-      <c r="BF4" s="28">
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="23">
         <v>2019</v>
       </c>
-      <c r="BG4" s="29"/>
-      <c r="BH4" s="29"/>
-      <c r="BI4" s="30"/>
-      <c r="BJ4" s="25">
+      <c r="BG4" s="24"/>
+      <c r="BH4" s="24"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="26">
         <v>2020</v>
       </c>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25">
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26">
         <v>2021</v>
       </c>
-      <c r="BN4" s="25"/>
-      <c r="BO4" s="25"/>
-      <c r="BP4" s="25"/>
-      <c r="BQ4" s="28">
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="23">
         <v>2022</v>
       </c>
-      <c r="BR4" s="29"/>
-      <c r="BS4" s="29"/>
-      <c r="BT4" s="30"/>
+      <c r="BR4" s="24"/>
+      <c r="BS4" s="24"/>
+      <c r="BT4" s="25"/>
+      <c r="BU4" s="22">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AB5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AC5" s="4" t="s">
+      <c r="AC5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AE5" s="4" t="s">
+      <c r="AE5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AF5" s="4" t="s">
+      <c r="AF5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AH5" s="4" t="s">
+      <c r="AH5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AI5" s="4" t="s">
+      <c r="AI5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AJ5" s="4" t="s">
+      <c r="AJ5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AK5" s="4" t="s">
+      <c r="AK5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AL5" s="4" t="s">
+      <c r="AL5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AM5" s="4" t="s">
+      <c r="AM5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AN5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AO5" s="4" t="s">
+      <c r="AO5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="4" t="s">
+      <c r="AP5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AQ5" s="4" t="s">
+      <c r="AQ5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AR5" s="4" t="s">
+      <c r="AR5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AS5" s="4" t="s">
+      <c r="AS5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AT5" s="4" t="s">
+      <c r="AT5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AU5" s="4" t="s">
+      <c r="AU5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AV5" s="4" t="s">
+      <c r="AV5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AW5" s="4" t="s">
+      <c r="AW5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AX5" s="4" t="s">
+      <c r="AX5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AY5" s="4" t="s">
+      <c r="AY5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="AZ5" s="4" t="s">
+      <c r="AZ5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BA5" s="4" t="s">
+      <c r="BA5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="4" t="s">
+      <c r="BB5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BC5" s="4" t="s">
+      <c r="BC5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BD5" s="4" t="s">
+      <c r="BD5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BE5" s="4" t="s">
+      <c r="BE5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BF5" s="10" t="s">
+      <c r="BF5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="BG5" s="4" t="s">
+      <c r="BG5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BH5" s="15" t="s">
+      <c r="BH5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BI5" s="15" t="s">
+      <c r="BI5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BJ5" s="4" t="s">
+      <c r="BJ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BK5" s="15" t="s">
+      <c r="BK5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="BL5" s="15" t="s">
+      <c r="BL5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BM5" s="4" t="s">
+      <c r="BM5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BN5" s="4" t="s">
+      <c r="BN5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BO5" s="4" t="s">
+      <c r="BO5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BP5" s="15" t="s">
+      <c r="BP5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="BQ5" s="4" t="s">
+      <c r="BQ5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="BR5" s="4" t="s">
+      <c r="BR5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="BS5" s="4" t="s">
+      <c r="BS5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="BT5" s="15" t="s">
+      <c r="BT5" s="13" t="s">
         <v>4</v>
       </c>
+      <c r="BU5" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="21"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="21"/>
-      <c r="AM6" s="21"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="21"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="21"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="21"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="21"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="21"/>
-      <c r="BH6" s="21"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BK6" s="21"/>
-      <c r="BL6" s="21"/>
-      <c r="BM6" s="21"/>
-      <c r="BN6" s="21"/>
-      <c r="BO6" s="21"/>
-      <c r="BP6" s="23"/>
-      <c r="BQ6" s="31"/>
-      <c r="BR6" s="32"/>
-      <c r="BS6" s="32"/>
-      <c r="BT6" s="23"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="19"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="19"/>
+      <c r="BA6" s="19"/>
+      <c r="BB6" s="19"/>
+      <c r="BC6" s="19"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
+      <c r="BK6" s="19"/>
+      <c r="BL6" s="19"/>
+      <c r="BM6" s="19"/>
+      <c r="BN6" s="19"/>
+      <c r="BO6" s="19"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="27"/>
+      <c r="BR6" s="28"/>
+      <c r="BS6" s="28"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="32"/>
     </row>
-    <row r="7" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>2953626</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>2910998</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>3023024</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>2994276</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="10">
         <v>2994558</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="10">
         <v>2973526</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="10">
         <v>3008886</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="10">
         <v>3028738</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="10">
         <v>3027303</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="10">
         <v>3085790</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="10">
         <v>3153929</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>3192107</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="10">
         <v>3176418</v>
       </c>
-      <c r="O7" s="12">
+      <c r="O7" s="10">
         <v>3238088</v>
       </c>
-      <c r="P7" s="12">
+      <c r="P7" s="10">
         <v>3198715</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <v>3164862</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="10">
         <v>3187667</v>
       </c>
-      <c r="S7" s="12">
+      <c r="S7" s="10">
         <v>3176574</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="10">
         <v>3291573</v>
       </c>
-      <c r="U7" s="12">
+      <c r="U7" s="10">
         <v>3363966</v>
       </c>
-      <c r="V7" s="12">
+      <c r="V7" s="10">
         <v>3295626</v>
       </c>
-      <c r="W7" s="12">
+      <c r="W7" s="10">
         <v>3335568</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="10">
         <v>3408603</v>
       </c>
-      <c r="Y7" s="12">
+      <c r="Y7" s="10">
         <v>3398249</v>
       </c>
-      <c r="Z7" s="12">
+      <c r="Z7" s="10">
         <v>3366354</v>
       </c>
-      <c r="AA7" s="12">
+      <c r="AA7" s="10">
         <v>3392590</v>
       </c>
-      <c r="AB7" s="12">
+      <c r="AB7" s="10">
         <v>3470494</v>
       </c>
-      <c r="AC7" s="12">
+      <c r="AC7" s="10">
         <v>3469069</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="10">
         <v>3439692</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AE7" s="10">
         <v>3489965</v>
       </c>
-      <c r="AF7" s="12">
+      <c r="AF7" s="10">
         <v>3507569</v>
       </c>
-      <c r="AG7" s="12">
+      <c r="AG7" s="10">
         <v>3454205</v>
       </c>
-      <c r="AH7" s="12">
+      <c r="AH7" s="10">
         <v>3464799</v>
       </c>
-      <c r="AI7" s="12">
+      <c r="AI7" s="10">
         <v>3523994</v>
       </c>
-      <c r="AJ7" s="12">
+      <c r="AJ7" s="10">
         <v>3521359</v>
       </c>
-      <c r="AK7" s="12">
+      <c r="AK7" s="10">
         <v>3525624</v>
       </c>
-      <c r="AL7" s="12">
+      <c r="AL7" s="10">
         <v>3469932</v>
       </c>
-      <c r="AM7" s="12">
+      <c r="AM7" s="10">
         <v>3455969</v>
       </c>
-      <c r="AN7" s="12">
+      <c r="AN7" s="10">
         <v>3523518</v>
       </c>
-      <c r="AO7" s="12">
+      <c r="AO7" s="10">
         <v>3517378</v>
       </c>
-      <c r="AP7" s="12">
+      <c r="AP7" s="10">
         <v>3538704</v>
       </c>
-      <c r="AQ7" s="12">
+      <c r="AQ7" s="10">
         <v>3541923</v>
       </c>
-      <c r="AR7" s="12">
+      <c r="AR7" s="10">
         <v>3578041</v>
       </c>
-      <c r="AS7" s="12">
+      <c r="AS7" s="10">
         <v>3714858</v>
       </c>
-      <c r="AT7" s="12">
+      <c r="AT7" s="10">
         <v>3647045</v>
       </c>
-      <c r="AU7" s="12">
+      <c r="AU7" s="10">
         <v>3647482</v>
       </c>
-      <c r="AV7" s="12">
+      <c r="AV7" s="10">
         <v>3679533</v>
       </c>
-      <c r="AW7" s="12">
+      <c r="AW7" s="10">
         <v>3694536</v>
       </c>
-      <c r="AX7" s="12">
+      <c r="AX7" s="10">
         <v>3742621</v>
       </c>
-      <c r="AY7" s="12">
+      <c r="AY7" s="10">
         <v>3707620</v>
       </c>
-      <c r="AZ7" s="12">
+      <c r="AZ7" s="10">
         <v>3785317</v>
       </c>
-      <c r="BA7" s="12">
+      <c r="BA7" s="10">
         <v>3757723</v>
       </c>
-      <c r="BB7" s="12">
+      <c r="BB7" s="10">
         <v>3735485</v>
       </c>
-      <c r="BC7" s="12">
+      <c r="BC7" s="10">
         <v>3760557</v>
       </c>
-      <c r="BD7" s="12">
+      <c r="BD7" s="10">
         <v>3794367</v>
       </c>
-      <c r="BE7" s="12">
+      <c r="BE7" s="10">
         <v>3797311</v>
       </c>
-      <c r="BF7" s="12">
+      <c r="BF7" s="10">
         <v>3858599</v>
       </c>
-      <c r="BG7" s="17">
+      <c r="BG7" s="15">
         <v>3848747</v>
       </c>
-      <c r="BH7" s="17">
+      <c r="BH7" s="15">
         <v>3886223</v>
       </c>
-      <c r="BI7" s="17">
+      <c r="BI7" s="15">
         <v>3895568</v>
       </c>
-      <c r="BJ7" s="19">
+      <c r="BJ7" s="17">
         <v>3894295</v>
       </c>
-      <c r="BK7" s="18">
+      <c r="BK7" s="16">
         <v>3764716</v>
       </c>
-      <c r="BL7" s="18">
+      <c r="BL7" s="16">
         <v>3810866</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="16">
         <v>3879906</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="16">
         <v>3957119</v>
       </c>
-      <c r="BO7" s="18">
+      <c r="BO7" s="16">
         <v>3959500</v>
       </c>
-      <c r="BP7" s="18">
+      <c r="BP7" s="16">
         <v>4050154</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7" s="16">
         <v>4039130</v>
       </c>
-      <c r="BR7" s="18">
+      <c r="BR7" s="16">
         <v>4068763</v>
       </c>
-      <c r="BS7" s="18">
+      <c r="BS7" s="16">
         <v>4140158</v>
       </c>
-      <c r="BT7" s="18">
+      <c r="BT7" s="16">
         <v>4164627</v>
       </c>
+      <c r="BU7" s="16">
+        <v>4198136</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>2844479</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>2825724</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>2894746</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="6">
         <v>2893276</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="6">
         <v>2879000</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>2891859</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>2892970</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>2916734</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>2923283</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="6">
         <v>2995783</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="6">
         <v>3047913</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="6">
         <v>3089794</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="6">
         <v>3066133</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>3141486</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="6">
         <v>3081134</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="6">
         <v>3037337</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="6">
         <v>3016962</v>
       </c>
-      <c r="S8" s="8">
+      <c r="S8" s="6">
         <v>3038366</v>
       </c>
-      <c r="T8" s="8">
+      <c r="T8" s="6">
         <v>3104885</v>
       </c>
-      <c r="U8" s="8">
+      <c r="U8" s="6">
         <v>3198326</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>3125868</v>
       </c>
-      <c r="W8" s="8">
+      <c r="W8" s="6">
         <v>3171385</v>
       </c>
-      <c r="X8" s="8">
+      <c r="X8" s="6">
         <v>3209427</v>
       </c>
-      <c r="Y8" s="8">
+      <c r="Y8" s="6">
         <v>3201925</v>
       </c>
-      <c r="Z8" s="8">
+      <c r="Z8" s="6">
         <v>3203724</v>
       </c>
-      <c r="AA8" s="8">
+      <c r="AA8" s="6">
         <v>3200368</v>
       </c>
-      <c r="AB8" s="8">
+      <c r="AB8" s="6">
         <v>3280531</v>
       </c>
-      <c r="AC8" s="8">
+      <c r="AC8" s="6">
         <v>3285628</v>
       </c>
-      <c r="AD8" s="8">
+      <c r="AD8" s="6">
         <v>3286857</v>
       </c>
-      <c r="AE8" s="8">
+      <c r="AE8" s="6">
         <v>3328415</v>
       </c>
-      <c r="AF8" s="8">
+      <c r="AF8" s="6">
         <v>3336397</v>
       </c>
-      <c r="AG8" s="8">
+      <c r="AG8" s="6">
         <v>3268992</v>
       </c>
-      <c r="AH8" s="8">
+      <c r="AH8" s="6">
         <v>3313107</v>
       </c>
-      <c r="AI8" s="8">
+      <c r="AI8" s="6">
         <v>3365048</v>
       </c>
-      <c r="AJ8" s="8">
+      <c r="AJ8" s="6">
         <v>3330846</v>
       </c>
-      <c r="AK8" s="8">
+      <c r="AK8" s="6">
         <v>3347377</v>
       </c>
-      <c r="AL8" s="8">
+      <c r="AL8" s="6">
         <v>3293553</v>
       </c>
-      <c r="AM8" s="8">
+      <c r="AM8" s="6">
         <v>3282880</v>
       </c>
-      <c r="AN8" s="8">
+      <c r="AN8" s="6">
         <v>3322345</v>
       </c>
-      <c r="AO8" s="8">
+      <c r="AO8" s="6">
         <v>3345254</v>
       </c>
-      <c r="AP8" s="8">
+      <c r="AP8" s="6">
         <v>3395608</v>
       </c>
-      <c r="AQ8" s="8">
+      <c r="AQ8" s="6">
         <v>3355065</v>
       </c>
-      <c r="AR8" s="8">
+      <c r="AR8" s="6">
         <v>3392294</v>
       </c>
-      <c r="AS8" s="8">
+      <c r="AS8" s="6">
         <v>3556156</v>
       </c>
-      <c r="AT8" s="8">
+      <c r="AT8" s="6">
         <v>3495018</v>
       </c>
-      <c r="AU8" s="8">
+      <c r="AU8" s="6">
         <v>3513266</v>
       </c>
-      <c r="AV8" s="8">
+      <c r="AV8" s="6">
         <v>3550695</v>
       </c>
-      <c r="AW8" s="8">
+      <c r="AW8" s="6">
         <v>3571709</v>
       </c>
-      <c r="AX8" s="8">
+      <c r="AX8" s="6">
         <v>3640721</v>
       </c>
-      <c r="AY8" s="8">
+      <c r="AY8" s="6">
         <v>3611268</v>
       </c>
-      <c r="AZ8" s="8">
+      <c r="AZ8" s="6">
         <v>3665360</v>
       </c>
-      <c r="BA8" s="8">
+      <c r="BA8" s="6">
         <v>3647376</v>
       </c>
-      <c r="BB8" s="8">
+      <c r="BB8" s="6">
         <v>3647778</v>
       </c>
-      <c r="BC8" s="8">
+      <c r="BC8" s="6">
         <v>3646192</v>
       </c>
-      <c r="BD8" s="8">
+      <c r="BD8" s="6">
         <v>3678349</v>
       </c>
-      <c r="BE8" s="8">
+      <c r="BE8" s="6">
         <v>3700487</v>
       </c>
-      <c r="BF8" s="8">
+      <c r="BF8" s="6">
         <v>3757440</v>
       </c>
-      <c r="BG8" s="13">
+      <c r="BG8" s="11">
         <v>3734233</v>
       </c>
-      <c r="BH8" s="13">
+      <c r="BH8" s="11">
         <v>3761282</v>
       </c>
-      <c r="BI8" s="13">
+      <c r="BI8" s="11">
         <v>3772715</v>
       </c>
-      <c r="BJ8" s="16">
+      <c r="BJ8" s="14">
         <v>3778375</v>
       </c>
-      <c r="BK8" s="16">
+      <c r="BK8" s="14">
         <v>3576228</v>
       </c>
-      <c r="BL8" s="16">
+      <c r="BL8" s="14">
         <v>3654530</v>
       </c>
-      <c r="BM8" s="16">
+      <c r="BM8" s="14">
         <v>3735596</v>
       </c>
-      <c r="BN8" s="16">
+      <c r="BN8" s="14">
         <v>3824700</v>
       </c>
-      <c r="BO8" s="16">
+      <c r="BO8" s="14">
         <v>3825417</v>
       </c>
-      <c r="BP8" s="16">
+      <c r="BP8" s="14">
         <v>3924612</v>
       </c>
-      <c r="BQ8" s="16">
+      <c r="BQ8" s="14">
         <v>3943727</v>
       </c>
-      <c r="BR8" s="16">
+      <c r="BR8" s="14">
         <v>3973378</v>
       </c>
-      <c r="BS8" s="16">
+      <c r="BS8" s="14">
         <v>4023627</v>
       </c>
-      <c r="BT8" s="16">
+      <c r="BT8" s="14">
         <v>4066247</v>
       </c>
+      <c r="BU8" s="14">
+        <v>4107726</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>109147</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>85274</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>128278</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="6">
         <v>101000</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="6">
         <v>115558</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <v>81667</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>115916</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="6">
         <v>112004</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="6">
         <v>104020</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="6">
         <v>90007</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <v>106016</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <v>102313</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <v>110285</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <v>96602</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <v>117581</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <v>127525</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="6">
         <v>170705</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="6">
         <v>138208</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="6">
         <v>186688</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="6">
         <v>165640</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="6">
         <v>169758</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="6">
         <v>164183</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="6">
         <v>199176</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="6">
         <v>196324</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="6">
         <v>162630</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="6">
         <v>192222</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="6">
         <v>189963</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="6">
         <v>183441</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="6">
         <v>152835</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="6">
         <v>161550</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="6">
         <v>171172</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="6">
         <v>185213</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="6">
         <v>151692</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="6">
         <v>158946</v>
       </c>
-      <c r="AJ9" s="8">
+      <c r="AJ9" s="6">
         <v>190513</v>
       </c>
-      <c r="AK9" s="8">
+      <c r="AK9" s="6">
         <v>178247</v>
       </c>
-      <c r="AL9" s="8">
+      <c r="AL9" s="6">
         <v>176379</v>
       </c>
-      <c r="AM9" s="8">
+      <c r="AM9" s="6">
         <v>173089</v>
       </c>
-      <c r="AN9" s="8">
+      <c r="AN9" s="6">
         <v>201173</v>
       </c>
-      <c r="AO9" s="8">
+      <c r="AO9" s="6">
         <v>172124</v>
       </c>
-      <c r="AP9" s="8">
+      <c r="AP9" s="6">
         <v>143096</v>
       </c>
-      <c r="AQ9" s="8">
+      <c r="AQ9" s="6">
         <v>186858</v>
       </c>
-      <c r="AR9" s="8">
+      <c r="AR9" s="6">
         <v>185747</v>
       </c>
-      <c r="AS9" s="8">
+      <c r="AS9" s="6">
         <v>158702</v>
       </c>
-      <c r="AT9" s="8">
+      <c r="AT9" s="6">
         <v>152027</v>
       </c>
-      <c r="AU9" s="8">
+      <c r="AU9" s="6">
         <v>134216</v>
       </c>
-      <c r="AV9" s="8">
+      <c r="AV9" s="6">
         <v>128838</v>
       </c>
-      <c r="AW9" s="8">
+      <c r="AW9" s="6">
         <v>122827</v>
       </c>
-      <c r="AX9" s="8">
+      <c r="AX9" s="6">
         <v>101900</v>
       </c>
-      <c r="AY9" s="8">
+      <c r="AY9" s="6">
         <v>96352</v>
       </c>
-      <c r="AZ9" s="8">
+      <c r="AZ9" s="6">
         <v>119957</v>
       </c>
-      <c r="BA9" s="8">
+      <c r="BA9" s="6">
         <v>110347</v>
       </c>
-      <c r="BB9" s="8">
+      <c r="BB9" s="6">
         <v>87707</v>
       </c>
-      <c r="BC9" s="8">
+      <c r="BC9" s="6">
         <v>114365</v>
       </c>
-      <c r="BD9" s="8">
+      <c r="BD9" s="6">
         <v>116018</v>
       </c>
-      <c r="BE9" s="8">
+      <c r="BE9" s="6">
         <v>96824</v>
       </c>
-      <c r="BF9" s="8">
+      <c r="BF9" s="6">
         <v>101159</v>
       </c>
-      <c r="BG9" s="13">
+      <c r="BG9" s="11">
         <v>114514</v>
       </c>
-      <c r="BH9" s="13">
+      <c r="BH9" s="11">
         <v>124941</v>
       </c>
-      <c r="BI9" s="13">
+      <c r="BI9" s="11">
         <v>122853</v>
       </c>
-      <c r="BJ9" s="16">
+      <c r="BJ9" s="14">
         <v>115920</v>
       </c>
-      <c r="BK9" s="16">
+      <c r="BK9" s="14">
         <v>188488</v>
       </c>
-      <c r="BL9" s="16">
+      <c r="BL9" s="14">
         <v>156336</v>
       </c>
-      <c r="BM9" s="16">
+      <c r="BM9" s="14">
         <v>144310</v>
       </c>
-      <c r="BN9" s="16">
+      <c r="BN9" s="14">
         <v>132419</v>
       </c>
-      <c r="BO9" s="16">
+      <c r="BO9" s="14">
         <v>134083</v>
       </c>
-      <c r="BP9" s="16">
+      <c r="BP9" s="14">
         <v>125542</v>
       </c>
-      <c r="BQ9" s="16">
+      <c r="BQ9" s="14">
         <v>95403</v>
       </c>
-      <c r="BR9" s="16">
+      <c r="BR9" s="14">
         <v>95385</v>
       </c>
-      <c r="BS9" s="16">
+      <c r="BS9" s="14">
         <v>116531</v>
       </c>
-      <c r="BT9" s="16">
+      <c r="BT9" s="14">
         <v>98380</v>
       </c>
+      <c r="BU9" s="14">
+        <v>90410</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="4">
         <v>1733133</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>1807300</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="4">
         <v>1689240</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>1748813</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>1742565</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="4">
         <v>1771496</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>1772617</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>1786587</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>1822530</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="4">
         <v>1798254</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="4">
         <v>1782399</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="4">
         <v>1780944</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="4">
         <v>1820680</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="4">
         <v>1788772</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="4">
         <v>1865015</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="4">
         <v>1976555</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10" s="4">
         <v>1921979</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="4">
         <v>1959520</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="4">
         <v>1911700</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10" s="4">
         <v>1857915</v>
       </c>
-      <c r="V10" s="6">
+      <c r="V10" s="4">
         <v>1926004</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="4">
         <v>1926758</v>
       </c>
-      <c r="X10" s="6">
+      <c r="X10" s="4">
         <v>1924303</v>
       </c>
-      <c r="Y10" s="6">
+      <c r="Y10" s="4">
         <v>1958762</v>
       </c>
-      <c r="Z10" s="6">
+      <c r="Z10" s="4">
         <v>2019697</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="4">
         <v>2014047</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="4">
         <v>1989820</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="4">
         <v>1970622</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="4">
         <v>2041456</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="4">
         <v>2023724</v>
       </c>
-      <c r="AF10" s="6">
+      <c r="AF10" s="4">
         <v>2015517</v>
       </c>
-      <c r="AG10" s="6">
+      <c r="AG10" s="4">
         <v>2058754</v>
       </c>
-      <c r="AH10" s="6">
+      <c r="AH10" s="4">
         <v>2069485</v>
       </c>
-      <c r="AI10" s="6">
+      <c r="AI10" s="4">
         <v>2038330</v>
       </c>
-      <c r="AJ10" s="6">
+      <c r="AJ10" s="4">
         <v>2071145</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="4">
         <v>2089585</v>
       </c>
-      <c r="AL10" s="6">
+      <c r="AL10" s="4">
         <v>2144117</v>
       </c>
-      <c r="AM10" s="6">
+      <c r="AM10" s="4">
         <v>2171055</v>
       </c>
-      <c r="AN10" s="6">
+      <c r="AN10" s="4">
         <v>2124666</v>
       </c>
-      <c r="AO10" s="6">
+      <c r="AO10" s="4">
         <v>2178131</v>
       </c>
-      <c r="AP10" s="6">
+      <c r="AP10" s="4">
         <v>2206837</v>
       </c>
-      <c r="AQ10" s="6">
+      <c r="AQ10" s="4">
         <v>2242230</v>
       </c>
-      <c r="AR10" s="6">
+      <c r="AR10" s="4">
         <v>2235942</v>
       </c>
-      <c r="AS10" s="6">
+      <c r="AS10" s="4">
         <v>2136927</v>
       </c>
-      <c r="AT10" s="6">
+      <c r="AT10" s="4">
         <v>2236694</v>
       </c>
-      <c r="AU10" s="6">
+      <c r="AU10" s="4">
         <v>2270401</v>
       </c>
-      <c r="AV10" s="6">
+      <c r="AV10" s="4">
         <v>2268282</v>
       </c>
-      <c r="AW10" s="6">
+      <c r="AW10" s="4">
         <v>2281014</v>
       </c>
-      <c r="AX10" s="6">
+      <c r="AX10" s="4">
         <v>2267640</v>
       </c>
-      <c r="AY10" s="6">
+      <c r="AY10" s="4">
         <v>2345521</v>
       </c>
-      <c r="AZ10" s="6">
+      <c r="AZ10" s="4">
         <v>2282386</v>
       </c>
-      <c r="BA10" s="6">
+      <c r="BA10" s="4">
         <v>2331269</v>
       </c>
-      <c r="BB10" s="6">
+      <c r="BB10" s="4">
         <v>2383649</v>
       </c>
-      <c r="BC10" s="6">
+      <c r="BC10" s="4">
         <v>2351996</v>
       </c>
-      <c r="BD10" s="6">
+      <c r="BD10" s="4">
         <v>2362189</v>
       </c>
-      <c r="BE10" s="6">
+      <c r="BE10" s="4">
         <v>2332019</v>
       </c>
-      <c r="BF10" s="6">
+      <c r="BF10" s="4">
         <v>2304183</v>
       </c>
-      <c r="BG10" s="14">
+      <c r="BG10" s="12">
         <v>2359086</v>
       </c>
-      <c r="BH10" s="14">
+      <c r="BH10" s="12">
         <v>2330499</v>
       </c>
-      <c r="BI10" s="14">
+      <c r="BI10" s="12">
         <v>2375423</v>
       </c>
-      <c r="BJ10" s="18">
+      <c r="BJ10" s="16">
         <v>2400108</v>
       </c>
-      <c r="BK10" s="18">
+      <c r="BK10" s="16">
         <v>2607179</v>
       </c>
-      <c r="BL10" s="18">
+      <c r="BL10" s="16">
         <v>2570104</v>
       </c>
-      <c r="BM10" s="18">
+      <c r="BM10" s="16">
         <v>2522352</v>
       </c>
-      <c r="BN10" s="18">
+      <c r="BN10" s="16">
         <v>2468729</v>
       </c>
-      <c r="BO10" s="18">
+      <c r="BO10" s="16">
         <v>2521836</v>
       </c>
-      <c r="BP10" s="18">
+      <c r="BP10" s="16">
         <v>2463635</v>
       </c>
-      <c r="BQ10" s="18">
+      <c r="BQ10" s="16">
         <v>2514640</v>
       </c>
-      <c r="BR10" s="18">
+      <c r="BR10" s="16">
         <v>2502301</v>
       </c>
-      <c r="BS10" s="18">
+      <c r="BS10" s="16">
         <v>2431506</v>
       </c>
-      <c r="BT10" s="18">
+      <c r="BT10" s="16">
         <v>2477564</v>
       </c>
+      <c r="BU10" s="16">
+        <v>2491249</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>176628</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>211174</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>241450</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="6">
         <v>257666</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="6">
         <v>204339</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6">
         <v>219062</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="6">
         <v>239779</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="6">
         <v>245168</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="6">
         <v>254806</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="6">
         <v>255647</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="6">
         <v>240005</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="6">
         <v>262894</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="6">
         <v>246288</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="6">
         <v>245437</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="6">
         <v>273966</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="6">
         <v>283685</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="6">
         <v>302249</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="6">
         <v>314066</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="6">
         <v>250335</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="6">
         <v>296133</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="6">
         <v>291718</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="6">
         <v>262395</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="6">
         <v>276582</v>
       </c>
-      <c r="Y11" s="8">
+      <c r="Y11" s="6">
         <v>291641</v>
       </c>
-      <c r="Z11" s="8">
+      <c r="Z11" s="6">
         <v>306195</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="AA11" s="6">
         <v>299072</v>
       </c>
-      <c r="AB11" s="8">
+      <c r="AB11" s="6">
         <v>325869</v>
       </c>
-      <c r="AC11" s="8">
+      <c r="AC11" s="6">
         <v>305309</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AD11" s="6">
         <v>309931</v>
       </c>
-      <c r="AE11" s="8">
+      <c r="AE11" s="6">
         <v>231608</v>
       </c>
-      <c r="AF11" s="8">
+      <c r="AF11" s="6">
         <v>229141</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AG11" s="6">
         <v>307877</v>
       </c>
-      <c r="AH11" s="8">
+      <c r="AH11" s="6">
         <v>280964</v>
       </c>
-      <c r="AI11" s="8">
+      <c r="AI11" s="6">
         <v>266756</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AJ11" s="6">
         <v>280873</v>
       </c>
-      <c r="AK11" s="8">
+      <c r="AK11" s="6">
         <v>298829</v>
       </c>
-      <c r="AL11" s="8">
+      <c r="AL11" s="6">
         <v>285160</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AM11" s="6">
         <v>268830</v>
       </c>
-      <c r="AN11" s="8">
+      <c r="AN11" s="6">
         <v>252671</v>
       </c>
-      <c r="AO11" s="8">
+      <c r="AO11" s="6">
         <v>245950</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AP11" s="6">
         <v>258978</v>
       </c>
-      <c r="AQ11" s="8">
+      <c r="AQ11" s="6">
         <v>243155</v>
       </c>
-      <c r="AR11" s="8">
+      <c r="AR11" s="6">
         <v>261988</v>
       </c>
-      <c r="AS11" s="8">
+      <c r="AS11" s="6">
         <v>276064</v>
       </c>
-      <c r="AT11" s="8">
+      <c r="AT11" s="6">
         <v>278331</v>
       </c>
-      <c r="AU11" s="8">
+      <c r="AU11" s="6">
         <v>280929</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AV11" s="6">
         <v>255800</v>
       </c>
-      <c r="AW11" s="8">
+      <c r="AW11" s="6">
         <v>234311</v>
       </c>
-      <c r="AX11" s="8">
+      <c r="AX11" s="6">
         <v>264065</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="AY11" s="6">
         <v>275454</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="AZ11" s="6">
         <v>231630</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BA11" s="6">
         <v>244583</v>
       </c>
-      <c r="BB11" s="8">
+      <c r="BB11" s="6">
         <v>246183</v>
       </c>
-      <c r="BC11" s="8">
+      <c r="BC11" s="6">
         <v>231176</v>
       </c>
-      <c r="BD11" s="8">
+      <c r="BD11" s="6">
         <v>244379</v>
       </c>
-      <c r="BE11" s="8">
+      <c r="BE11" s="6">
         <v>211814</v>
       </c>
-      <c r="BF11" s="8">
+      <c r="BF11" s="6">
         <v>225022</v>
       </c>
-      <c r="BG11" s="13">
+      <c r="BG11" s="11">
         <v>234306</v>
       </c>
-      <c r="BH11" s="13">
+      <c r="BH11" s="11">
         <v>248149</v>
       </c>
-      <c r="BI11" s="13">
+      <c r="BI11" s="11">
         <v>219264</v>
       </c>
-      <c r="BJ11" s="16">
+      <c r="BJ11" s="14">
         <v>186765</v>
       </c>
-      <c r="BK11" s="16">
+      <c r="BK11" s="14">
         <v>369411</v>
       </c>
-      <c r="BL11" s="16">
+      <c r="BL11" s="14">
         <v>284112</v>
       </c>
-      <c r="BM11" s="16">
+      <c r="BM11" s="14">
         <v>242475</v>
       </c>
-      <c r="BN11" s="16">
+      <c r="BN11" s="14">
         <v>198565</v>
       </c>
-      <c r="BO11" s="16">
+      <c r="BO11" s="14">
         <v>214865</v>
       </c>
-      <c r="BP11" s="16">
+      <c r="BP11" s="14">
         <v>248788</v>
       </c>
-      <c r="BQ11" s="16">
+      <c r="BQ11" s="14">
         <v>218246</v>
       </c>
-      <c r="BR11" s="16">
+      <c r="BR11" s="14">
         <v>218314</v>
       </c>
-      <c r="BS11" s="16">
+      <c r="BS11" s="14">
         <v>136420</v>
       </c>
-      <c r="BT11" s="16">
+      <c r="BT11" s="14">
         <v>163762</v>
       </c>
+      <c r="BU11" s="14">
+        <v>134272</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>1556505</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>1596126</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>1447790</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="6">
         <v>1491147</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>1538226</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>1552434</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="6">
         <v>1532838</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="6">
         <v>1541419</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="6">
         <v>1567724</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="6">
         <v>1542607</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="6">
         <v>1542394</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>1518050</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <v>1574392</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="6">
         <v>1543335</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <v>1591049</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <v>1692870</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <v>1619730</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <v>1645454</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <v>1661365</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <v>1561782</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="6">
         <v>1634286</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="6">
         <v>1664363</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="6">
         <v>1647721</v>
       </c>
-      <c r="Y12" s="8">
+      <c r="Y12" s="6">
         <v>1667121</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="6">
         <v>1713502</v>
       </c>
-      <c r="AA12" s="8">
+      <c r="AA12" s="6">
         <v>1714975</v>
       </c>
-      <c r="AB12" s="8">
+      <c r="AB12" s="6">
         <v>1663951</v>
       </c>
-      <c r="AC12" s="8">
+      <c r="AC12" s="6">
         <v>1665313</v>
       </c>
-      <c r="AD12" s="8">
+      <c r="AD12" s="6">
         <v>1731525</v>
       </c>
-      <c r="AE12" s="8">
+      <c r="AE12" s="6">
         <v>1792116</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="6">
         <v>1786376</v>
       </c>
-      <c r="AG12" s="8">
+      <c r="AG12" s="6">
         <v>1750877</v>
       </c>
-      <c r="AH12" s="8">
+      <c r="AH12" s="6">
         <v>1788521</v>
       </c>
-      <c r="AI12" s="8">
+      <c r="AI12" s="6">
         <v>1771574</v>
       </c>
-      <c r="AJ12" s="8">
+      <c r="AJ12" s="6">
         <v>1790272</v>
       </c>
-      <c r="AK12" s="8">
+      <c r="AK12" s="6">
         <v>1790756</v>
       </c>
-      <c r="AL12" s="8">
+      <c r="AL12" s="6">
         <v>1858957</v>
       </c>
-      <c r="AM12" s="8">
+      <c r="AM12" s="6">
         <v>1902225</v>
       </c>
-      <c r="AN12" s="8">
+      <c r="AN12" s="6">
         <v>1871995</v>
       </c>
-      <c r="AO12" s="8">
+      <c r="AO12" s="6">
         <v>1932181</v>
       </c>
-      <c r="AP12" s="8">
+      <c r="AP12" s="6">
         <v>1947859</v>
       </c>
-      <c r="AQ12" s="8">
+      <c r="AQ12" s="6">
         <v>1999075</v>
       </c>
-      <c r="AR12" s="8">
+      <c r="AR12" s="6">
         <v>1973954</v>
       </c>
-      <c r="AS12" s="8">
+      <c r="AS12" s="6">
         <v>1860863</v>
       </c>
-      <c r="AT12" s="8">
+      <c r="AT12" s="6">
         <v>1958363</v>
       </c>
-      <c r="AU12" s="8">
+      <c r="AU12" s="6">
         <v>1989472</v>
       </c>
-      <c r="AV12" s="8">
+      <c r="AV12" s="6">
         <v>2012482</v>
       </c>
-      <c r="AW12" s="8">
+      <c r="AW12" s="6">
         <v>2046703</v>
       </c>
-      <c r="AX12" s="8">
+      <c r="AX12" s="6">
         <v>2003575</v>
       </c>
-      <c r="AY12" s="8">
+      <c r="AY12" s="6">
         <v>2070067</v>
       </c>
-      <c r="AZ12" s="8">
+      <c r="AZ12" s="6">
         <v>2050756</v>
       </c>
-      <c r="BA12" s="8">
+      <c r="BA12" s="6">
         <v>2086686</v>
       </c>
-      <c r="BB12" s="8">
+      <c r="BB12" s="6">
         <v>2137466</v>
       </c>
-      <c r="BC12" s="8">
+      <c r="BC12" s="6">
         <v>2120820</v>
       </c>
-      <c r="BD12" s="8">
+      <c r="BD12" s="6">
         <v>2117810</v>
       </c>
-      <c r="BE12" s="8">
+      <c r="BE12" s="6">
         <v>2120205</v>
       </c>
-      <c r="BF12" s="8">
+      <c r="BF12" s="6">
         <v>2079161</v>
       </c>
-      <c r="BG12" s="13">
+      <c r="BG12" s="11">
         <v>2124780</v>
       </c>
-      <c r="BH12" s="13">
+      <c r="BH12" s="11">
         <v>2082350</v>
       </c>
-      <c r="BI12" s="13">
+      <c r="BI12" s="11">
         <v>2156159</v>
       </c>
-      <c r="BJ12" s="16">
+      <c r="BJ12" s="14">
         <v>2213343</v>
       </c>
-      <c r="BK12" s="16">
+      <c r="BK12" s="14">
         <v>2237768</v>
       </c>
-      <c r="BL12" s="16">
+      <c r="BL12" s="14">
         <v>2285992</v>
       </c>
-      <c r="BM12" s="16">
+      <c r="BM12" s="14">
         <v>2279877</v>
       </c>
-      <c r="BN12" s="16">
+      <c r="BN12" s="14">
         <v>2270164</v>
       </c>
-      <c r="BO12" s="16">
+      <c r="BO12" s="14">
         <v>2306971</v>
       </c>
-      <c r="BP12" s="16">
+      <c r="BP12" s="14">
         <v>2214847</v>
       </c>
-      <c r="BQ12" s="16">
+      <c r="BQ12" s="14">
         <v>2296394</v>
       </c>
-      <c r="BR12" s="16">
+      <c r="BR12" s="14">
         <v>2283987</v>
       </c>
-      <c r="BS12" s="16">
+      <c r="BS12" s="14">
         <v>2295086</v>
       </c>
-      <c r="BT12" s="16">
+      <c r="BT12" s="14">
         <v>2313802</v>
       </c>
+      <c r="BU12" s="14">
+        <v>2356977</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="24"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="24"/>
-      <c r="AA13" s="24"/>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
-      <c r="BC13" s="24"/>
-      <c r="BD13" s="24"/>
-      <c r="BE13" s="24"/>
-      <c r="BF13" s="24"/>
-      <c r="BG13" s="24"/>
-      <c r="BH13" s="24"/>
-      <c r="BI13" s="24"/>
-      <c r="BJ13" s="24"/>
-      <c r="BK13" s="24"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="29"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="29"/>
+      <c r="AH13" s="29"/>
+      <c r="AI13" s="29"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="29"/>
+      <c r="AL13" s="29"/>
+      <c r="AM13" s="29"/>
+      <c r="AN13" s="29"/>
+      <c r="AO13" s="29"/>
+      <c r="AP13" s="29"/>
+      <c r="AQ13" s="29"/>
+      <c r="AR13" s="29"/>
+      <c r="AS13" s="29"/>
+      <c r="AT13" s="29"/>
+      <c r="AU13" s="29"/>
+      <c r="AV13" s="29"/>
+      <c r="AW13" s="29"/>
+      <c r="AX13" s="29"/>
+      <c r="AY13" s="29"/>
+      <c r="AZ13" s="29"/>
+      <c r="BA13" s="29"/>
+      <c r="BB13" s="29"/>
+      <c r="BC13" s="29"/>
+      <c r="BD13" s="29"/>
+      <c r="BE13" s="29"/>
+      <c r="BF13" s="29"/>
+      <c r="BG13" s="29"/>
+      <c r="BH13" s="29"/>
+      <c r="BI13" s="29"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="29"/>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
@@ -3149,6 +3207,12 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BT4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB788C4-5A03-4560-A960-343079818BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CDCD5-3380-4174-98B2-DEA139F083A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pob 15 y más" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -90,7 +101,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - I trimestre de 2023</t>
+    <t>I trimestre 2005 - II trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -469,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -658,6 +669,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -703,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -754,6 +780,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,26 +801,26 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -846,9 +881,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -886,9 +921,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -921,26 +956,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -973,26 +991,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1166,11 +1167,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BU15"/>
+  <dimension ref="A1:BV15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BS22" sqref="BS22"/>
+      <selection pane="topRight" activeCell="BT23" sqref="BT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1246,9 +1247,10 @@
     <col min="71" max="71" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="15.6640625" customWidth="1"/>
     <col min="73" max="73" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1310,188 +1312,189 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="30"/>
-      <c r="AX3" s="30"/>
-      <c r="AY3" s="30"/>
-      <c r="AZ3" s="30"/>
-      <c r="BA3" s="30"/>
-      <c r="BB3" s="30"/>
-      <c r="BC3" s="30"/>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
+    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="24"/>
+      <c r="AS3" s="24"/>
+      <c r="AT3" s="24"/>
+      <c r="AU3" s="24"/>
+      <c r="AV3" s="24"/>
+      <c r="AW3" s="24"/>
+      <c r="AX3" s="24"/>
+      <c r="AY3" s="24"/>
+      <c r="AZ3" s="24"/>
+      <c r="BA3" s="24"/>
+      <c r="BB3" s="24"/>
+      <c r="BC3" s="24"/>
+      <c r="BD3" s="24"/>
+      <c r="BE3" s="24"/>
+      <c r="BF3" s="24"/>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="23">
         <v>2005</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23">
         <v>2006</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26">
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23">
         <v>2007</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26">
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23">
         <v>2008</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26">
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23">
         <v>2009</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26">
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23">
         <v>2010</v>
       </c>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26">
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23">
         <v>2011</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26">
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23">
         <v>2012</v>
       </c>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26">
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23">
         <v>2013</v>
       </c>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26">
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23">
         <v>2014</v>
       </c>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26">
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26">
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23">
         <v>2016</v>
       </c>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="26"/>
-      <c r="AW4" s="26"/>
-      <c r="AX4" s="26">
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23">
         <v>2017</v>
       </c>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="26">
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23">
         <v>2018</v>
       </c>
-      <c r="BC4" s="26"/>
-      <c r="BD4" s="26"/>
-      <c r="BE4" s="26"/>
-      <c r="BF4" s="23">
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="26">
         <v>2019</v>
       </c>
-      <c r="BG4" s="24"/>
-      <c r="BH4" s="24"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="26">
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="28"/>
+      <c r="BJ4" s="23">
         <v>2020</v>
       </c>
-      <c r="BK4" s="26"/>
-      <c r="BL4" s="26"/>
-      <c r="BM4" s="26">
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23">
         <v>2021</v>
       </c>
-      <c r="BN4" s="26"/>
-      <c r="BO4" s="26"/>
-      <c r="BP4" s="26"/>
-      <c r="BQ4" s="23">
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="26">
         <v>2022</v>
       </c>
-      <c r="BR4" s="24"/>
-      <c r="BS4" s="24"/>
-      <c r="BT4" s="25"/>
-      <c r="BU4" s="22">
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="32">
         <v>2023</v>
       </c>
+      <c r="BV4" s="33"/>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1708,8 +1711,11 @@
       <c r="BU5" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="BV5" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -1780,13 +1786,14 @@
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
       <c r="BP6" s="21"/>
-      <c r="BQ6" s="27"/>
-      <c r="BR6" s="28"/>
-      <c r="BS6" s="28"/>
+      <c r="BQ6" s="29"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
       <c r="BT6" s="21"/>
-      <c r="BU6" s="32"/>
+      <c r="BU6" s="29"/>
+      <c r="BV6" s="31"/>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2003,11 +2010,14 @@
       <c r="BT7" s="16">
         <v>4164627</v>
       </c>
-      <c r="BU7" s="16">
+      <c r="BU7" s="17">
         <v>4198136</v>
       </c>
+      <c r="BV7" s="34">
+        <v>4180510</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2227,8 +2237,11 @@
       <c r="BU8" s="14">
         <v>4107726</v>
       </c>
+      <c r="BV8" s="35">
+        <v>4077856</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2448,8 +2461,11 @@
       <c r="BU9" s="14">
         <v>90410</v>
       </c>
+      <c r="BV9" s="35">
+        <v>102654</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2669,8 +2685,11 @@
       <c r="BU10" s="16">
         <v>2491249</v>
       </c>
+      <c r="BV10" s="34">
+        <v>2529453</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2890,8 +2909,11 @@
       <c r="BU11" s="14">
         <v>134272</v>
       </c>
+      <c r="BV11" s="35">
+        <v>154068</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -3111,86 +3133,97 @@
       <c r="BU12" s="14">
         <v>2356977</v>
       </c>
+      <c r="BV12" s="35">
+        <v>2375385</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.3">
-      <c r="A13" s="29" t="s">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-      <c r="AC13" s="29"/>
-      <c r="AD13" s="29"/>
-      <c r="AE13" s="29"/>
-      <c r="AF13" s="29"/>
-      <c r="AG13" s="29"/>
-      <c r="AH13" s="29"/>
-      <c r="AI13" s="29"/>
-      <c r="AJ13" s="29"/>
-      <c r="AK13" s="29"/>
-      <c r="AL13" s="29"/>
-      <c r="AM13" s="29"/>
-      <c r="AN13" s="29"/>
-      <c r="AO13" s="29"/>
-      <c r="AP13" s="29"/>
-      <c r="AQ13" s="29"/>
-      <c r="AR13" s="29"/>
-      <c r="AS13" s="29"/>
-      <c r="AT13" s="29"/>
-      <c r="AU13" s="29"/>
-      <c r="AV13" s="29"/>
-      <c r="AW13" s="29"/>
-      <c r="AX13" s="29"/>
-      <c r="AY13" s="29"/>
-      <c r="AZ13" s="29"/>
-      <c r="BA13" s="29"/>
-      <c r="BB13" s="29"/>
-      <c r="BC13" s="29"/>
-      <c r="BD13" s="29"/>
-      <c r="BE13" s="29"/>
-      <c r="BF13" s="29"/>
-      <c r="BG13" s="29"/>
-      <c r="BH13" s="29"/>
-      <c r="BI13" s="29"/>
-      <c r="BJ13" s="29"/>
-      <c r="BK13" s="29"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22"/>
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
@@ -3207,12 +3240,6 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BQ4:BT4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Historicos/Pob.15ymas.xlsx
+++ b/Historicos/Pob.15ymas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\susan\OneDrive\Documentos\IIEG\Actualizaciones pagina\Datos históricos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631CDCD5-3380-4174-98B2-DEA139F083A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BF25C6-7623-40B2-B8CD-C4F7618AAFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="17">
   <si>
     <t>Indicadores</t>
   </si>
@@ -101,7 +101,7 @@
     <t>No se cuenta con datos del II trimestre 2020.</t>
   </si>
   <si>
-    <t>I trimestre 2005 - II trimestre de 2023</t>
+    <t>I trimestre 2005 - III trimestre de 2023</t>
   </si>
 </sst>
 </file>
@@ -670,9 +670,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -729,7 +727,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,16 +778,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,19 +799,22 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="16" fillId="35" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1167,11 +1168,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BV15"/>
+  <dimension ref="A1:BW15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BT23" sqref="BT23"/>
+      <pane xSplit="1" topLeftCell="BN1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BS29" sqref="BS29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1248,9 +1249,10 @@
     <col min="72" max="72" width="15.6640625" customWidth="1"/>
     <col min="73" max="73" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1312,189 +1314,190 @@
       <c r="BE1" s="1"/>
       <c r="BF1" s="1"/>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="24"/>
-      <c r="AS3" s="24"/>
-      <c r="AT3" s="24"/>
-      <c r="AU3" s="24"/>
-      <c r="AV3" s="24"/>
-      <c r="AW3" s="24"/>
-      <c r="AX3" s="24"/>
-      <c r="AY3" s="24"/>
-      <c r="AZ3" s="24"/>
-      <c r="BA3" s="24"/>
-      <c r="BB3" s="24"/>
-      <c r="BC3" s="24"/>
-      <c r="BD3" s="24"/>
-      <c r="BE3" s="24"/>
-      <c r="BF3" s="24"/>
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="32"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="32"/>
+      <c r="BD3" s="32"/>
+      <c r="BE3" s="32"/>
+      <c r="BF3" s="32"/>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="29">
         <v>2005</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29">
         <v>2006</v>
       </c>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29">
         <v>2007</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23">
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29">
         <v>2008</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23">
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29">
         <v>2009</v>
       </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23">
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29">
         <v>2010</v>
       </c>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23">
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29">
         <v>2011</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23">
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29">
         <v>2012</v>
       </c>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23">
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29"/>
+      <c r="AH4" s="29">
         <v>2013</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23">
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29"/>
+      <c r="AK4" s="29"/>
+      <c r="AL4" s="29">
         <v>2014</v>
       </c>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23">
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29">
         <v>2015</v>
       </c>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23">
+      <c r="AQ4" s="29"/>
+      <c r="AR4" s="29"/>
+      <c r="AS4" s="29"/>
+      <c r="AT4" s="29">
         <v>2016</v>
       </c>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23">
+      <c r="AU4" s="29"/>
+      <c r="AV4" s="29"/>
+      <c r="AW4" s="29"/>
+      <c r="AX4" s="29">
         <v>2017</v>
       </c>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23">
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29">
         <v>2018</v>
       </c>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
       <c r="BF4" s="26">
         <v>2019</v>
       </c>
       <c r="BG4" s="27"/>
       <c r="BH4" s="27"/>
       <c r="BI4" s="28"/>
-      <c r="BJ4" s="23">
+      <c r="BJ4" s="29">
         <v>2020</v>
       </c>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23">
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29">
         <v>2021</v>
       </c>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="23"/>
-      <c r="BP4" s="23"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29"/>
       <c r="BQ4" s="26">
         <v>2022</v>
       </c>
       <c r="BR4" s="27"/>
       <c r="BS4" s="27"/>
       <c r="BT4" s="28"/>
-      <c r="BU4" s="32">
+      <c r="BU4" s="24">
         <v>2023</v>
       </c>
-      <c r="BV4" s="33"/>
+      <c r="BV4" s="34"/>
+      <c r="BW4" s="25"/>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A5" s="33"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1714,8 +1717,11 @@
       <c r="BV5" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="BW5" s="13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
         <v>5</v>
       </c>
@@ -1786,14 +1792,15 @@
       <c r="BN6" s="19"/>
       <c r="BO6" s="19"/>
       <c r="BP6" s="21"/>
-      <c r="BQ6" s="29"/>
+      <c r="BQ6" s="22"/>
       <c r="BR6" s="30"/>
       <c r="BS6" s="30"/>
       <c r="BT6" s="21"/>
-      <c r="BU6" s="29"/>
-      <c r="BV6" s="31"/>
+      <c r="BU6" s="22"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="23"/>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>6</v>
       </c>
@@ -2013,11 +2020,14 @@
       <c r="BU7" s="17">
         <v>4198136</v>
       </c>
-      <c r="BV7" s="34">
+      <c r="BV7" s="16">
         <v>4180510</v>
       </c>
+      <c r="BW7" s="35">
+        <v>4118554</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
@@ -2237,11 +2247,14 @@
       <c r="BU8" s="14">
         <v>4107726</v>
       </c>
-      <c r="BV8" s="35">
+      <c r="BV8" s="14">
         <v>4077856</v>
       </c>
+      <c r="BW8" s="36">
+        <v>3996628</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -2461,11 +2474,14 @@
       <c r="BU9" s="14">
         <v>90410</v>
       </c>
-      <c r="BV9" s="35">
+      <c r="BV9" s="14">
         <v>102654</v>
       </c>
+      <c r="BW9" s="36">
+        <v>121926</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2685,11 +2701,14 @@
       <c r="BU10" s="16">
         <v>2491249</v>
       </c>
-      <c r="BV10" s="34">
+      <c r="BV10" s="16">
         <v>2529453</v>
       </c>
+      <c r="BW10" s="35">
+        <v>2537424</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
@@ -2909,11 +2928,14 @@
       <c r="BU11" s="14">
         <v>134272</v>
       </c>
-      <c r="BV11" s="35">
+      <c r="BV11" s="14">
         <v>154068</v>
       </c>
+      <c r="BW11" s="36">
+        <v>124628</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
@@ -3133,97 +3155,92 @@
       <c r="BU12" s="14">
         <v>2356977</v>
       </c>
-      <c r="BV12" s="35">
+      <c r="BV12" s="14">
         <v>2375385</v>
       </c>
+      <c r="BW12" s="36">
+        <v>2412796</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="22"/>
-      <c r="AM13" s="22"/>
-      <c r="AN13" s="22"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="22"/>
-      <c r="BG13" s="22"/>
-      <c r="BH13" s="22"/>
-      <c r="BI13" s="22"/>
-      <c r="BJ13" s="22"/>
-      <c r="BK13" s="22"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="31"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="31"/>
+      <c r="AB13" s="31"/>
+      <c r="AC13" s="31"/>
+      <c r="AD13" s="31"/>
+      <c r="AE13" s="31"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="31"/>
+      <c r="AH13" s="31"/>
+      <c r="AI13" s="31"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="31"/>
+      <c r="AL13" s="31"/>
+      <c r="AM13" s="31"/>
+      <c r="AN13" s="31"/>
+      <c r="AO13" s="31"/>
+      <c r="AP13" s="31"/>
+      <c r="AQ13" s="31"/>
+      <c r="AR13" s="31"/>
+      <c r="AS13" s="31"/>
+      <c r="AT13" s="31"/>
+      <c r="AU13" s="31"/>
+      <c r="AV13" s="31"/>
+      <c r="AW13" s="31"/>
+      <c r="AX13" s="31"/>
+      <c r="AY13" s="31"/>
+      <c r="AZ13" s="31"/>
+      <c r="BA13" s="31"/>
+      <c r="BB13" s="31"/>
+      <c r="BC13" s="31"/>
+      <c r="BD13" s="31"/>
+      <c r="BE13" s="31"/>
+      <c r="BF13" s="31"/>
+      <c r="BG13" s="31"/>
+      <c r="BH13" s="31"/>
+      <c r="BI13" s="31"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="31"/>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BF4:BI4"/>
-    <mergeCell ref="AP4:AS4"/>
-    <mergeCell ref="BQ6:BS6"/>
-    <mergeCell ref="AT4:AW4"/>
-    <mergeCell ref="BJ4:BL4"/>
-    <mergeCell ref="BQ4:BT4"/>
     <mergeCell ref="A13:BK13"/>
     <mergeCell ref="BM4:BP4"/>
     <mergeCell ref="A3:BF3"/>
@@ -3240,6 +3257,14 @@
     <mergeCell ref="AD4:AG4"/>
     <mergeCell ref="AH4:AK4"/>
     <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="BU6:BW6"/>
+    <mergeCell ref="BU4:BW4"/>
+    <mergeCell ref="BF4:BI4"/>
+    <mergeCell ref="AP4:AS4"/>
+    <mergeCell ref="BQ6:BS6"/>
+    <mergeCell ref="AT4:AW4"/>
+    <mergeCell ref="BJ4:BL4"/>
+    <mergeCell ref="BQ4:BT4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
